--- a/证券投资/股票/行业/能源/水电.xlsx
+++ b/证券投资/股票/行业/能源/水电.xlsx
@@ -871,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,9 +887,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,9 +911,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -941,9 +935,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,9 +956,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,9 +964,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1514,18 +1499,18 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="14.2596153846154" customWidth="1"/>
     <col min="4" max="4" width="11.7307692307692" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5769230769231" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5769230769231" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.3076923076923" customWidth="1"/>
     <col min="7" max="7" width="12.9230769230769"/>
     <col min="10" max="10" width="8.61538461538461" customWidth="1"/>
@@ -1540,1000 +1525,1000 @@
   </cols>
   <sheetData>
     <row r="1" ht="68" spans="1:21">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>2023</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <f>((M2/0.04)*(1-N2))/U2</f>
         <v>19.9008812525123</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>((M2*(1+0.02)/(0.04-0.02))*(1-N2))/U2</f>
         <v>40.5977977551251</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21">
+      <c r="F2" s="18"/>
+      <c r="G2" s="19">
         <v>0.134301839796218</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="19">
         <v>0.148068251856224</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>0.488590784882281</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="19">
         <v>0.692731568350145</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="27">
         <v>2.1450747489315</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="27">
         <v>1.11323886262824</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="27">
         <v>52486155973.95</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="28">
         <v>0.628900927346699</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="29">
         <v>0.578262821395834</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="30">
         <v>0.0344417535595324</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="19">
         <v>0.0174660047816308</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="29">
         <v>0.54824649460514</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="29">
         <v>0.348718758589435</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="29">
         <v>0.671938277256078</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="32">
         <v>24468217716</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="9">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8">
         <v>2022</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21">
+      <c r="D3" s="11"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19">
         <v>0.237515977883444</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>-0.0969467775905325</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>0.216722834902578</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <v>-0.0388052964398959</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="27">
         <v>1.36342328310024</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="27">
         <v>1.04327072473529</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="27">
         <v>31006780375.17</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="33">
+      <c r="N3" s="27"/>
+      <c r="O3" s="29">
         <v>0.571262297266717</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="30">
         <v>0.0434784229176814</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="19">
         <v>0.00227904517879112</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="29">
         <v>0.545122780924817</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="29">
         <v>0.344537294537943</v>
       </c>
-      <c r="T3" s="33">
+      <c r="T3" s="29">
         <v>0.45026679857099</v>
       </c>
-      <c r="U3" s="37">
+      <c r="U3" s="32">
         <v>22741859230</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8">
         <v>2021</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21">
+      <c r="D4" s="11"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
         <v>-0.0369849172431729</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>-0.000946529141661443</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>-0.129259453533889</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="19">
         <v>-0.137678554865908</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="27">
         <v>1.41846732826382</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="27">
         <v>1.15527047448178</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="27">
         <v>32258584301.73</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="33">
+      <c r="N4" s="27"/>
+      <c r="O4" s="29">
         <v>0.620584026420542</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="30">
         <v>0.0437314429873847</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="19">
         <v>0.00114141932592522</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="29">
         <v>0.592736644849133</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="29">
         <v>0.472143165415904</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="29">
         <v>0.579708102300403</v>
       </c>
-      <c r="U4" s="25"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8">
         <v>2020</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21">
+      <c r="D5" s="11"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19">
         <v>0.158584961860275</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>0.220688281462396</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>0.125394696638658</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>0.10849411903073</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="27">
         <v>1.64494033665514</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="27">
         <v>1.15636500765993</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="27">
         <v>37409001577.96</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="33">
+      <c r="N5" s="27"/>
+      <c r="O5" s="29">
         <v>0.633987160148322</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="30">
         <v>0.0384402282819458</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="19">
         <v>0.00108009236563836</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="29">
         <v>0.60893178429281</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="29">
         <v>0.455111766065361</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="29">
         <v>0.647400861084714</v>
       </c>
-      <c r="U5" s="25"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8">
         <v>2019</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21">
+      <c r="D6" s="11"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
         <v>-0.0261623729394759</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>-0.0472091365423241</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>-0.0823482979264315</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>-0.0783824442068908</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="27">
         <v>1.53398122140818</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="27">
         <v>0.979249710707727</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="27">
         <v>33747586870.98</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="33">
+      <c r="N6" s="27"/>
+      <c r="O6" s="29">
         <v>0.625110046208766</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="30">
         <v>0.0269887248774963</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="19">
         <v>0.00131722719677945</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="29">
         <v>0.607415711199632</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="29">
         <v>0.431957655477208</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="29">
         <v>0.676655734181075</v>
       </c>
-      <c r="U6" s="25"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8">
         <v>2018</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="21">
+      <c r="D7" s="11"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
         <v>0.0213072338810027</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>0.015723754089909</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>0.00109594052898353</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>-0.0139780282190672</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="27">
         <v>1.66444444527545</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="30">
+      <c r="L7" s="19"/>
+      <c r="M7" s="27">
         <v>36617777796.06</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="33">
+      <c r="N7" s="27"/>
+      <c r="O7" s="29">
         <v>0.628906778128944</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="30">
         <v>0.0256351482211315</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="19">
         <v>0.00131919074270655</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="29">
         <v>0.611955011654601</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="29">
         <v>0.441499424830744</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="29">
         <v>0.714995944217583</v>
       </c>
-      <c r="U7" s="25"/>
+      <c r="U7" s="22"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8">
         <v>2017</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="21">
+      <c r="D8" s="11"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
         <v>0.0246450780583553</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>0.0712052223514997</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>0.0180389052900751</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>0.0109038228732473</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="27">
         <v>1.68803991484</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="30">
+      <c r="L8" s="19"/>
+      <c r="M8" s="27">
         <v>37136878126.48</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="33">
+      <c r="N8" s="27"/>
+      <c r="O8" s="29">
         <v>0.61205427687266</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="30">
         <v>0.0270672429252941</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="19">
         <v>0.000939062469020292</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="29">
         <v>0.594912897876668</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="29">
         <v>0.443926367300481</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="29">
         <v>0.740582411876753</v>
       </c>
-      <c r="U8" s="25"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8">
         <v>2016</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="21">
+      <c r="D9" s="11"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <v>0.0317155017044859</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>0.139652739057563</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>-0.0201871198534411</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>0.0505514556547658</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="27">
         <v>1.66983235857409</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="30">
+      <c r="L9" s="22"/>
+      <c r="M9" s="27">
         <v>36736311888.63</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="33">
+      <c r="N9" s="27"/>
+      <c r="O9" s="29">
         <v>0.606901607806497</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="30">
         <v>0.0280550262226604</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="19">
         <v>0.000848981136646843</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="29">
         <v>0.589359719268082</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="29">
         <v>0.424631021006642</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="29">
         <v>0.750649177554102</v>
       </c>
-      <c r="U9" s="25"/>
+      <c r="U9" s="22"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8">
         <v>2015</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26">
+      <c r="D10" s="11"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23">
         <v>0.763526309566169</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="23">
         <v>0.541393413064059</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <v>0.868319624216055</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="19">
         <v>0.710074880184876</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="27">
         <v>2.11930899032242</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="30">
+      <c r="L10" s="22"/>
+      <c r="M10" s="27">
         <v>34968598340.32</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="33">
+      <c r="N10" s="27"/>
+      <c r="O10" s="29">
         <v>0.618137578663228</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="30">
         <v>0.0301035722863683</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="19">
         <v>0.000769917781859499</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="29">
         <v>0.59905351426757</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="29">
         <v>0.384413946338988</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="29">
         <v>0.737190347655654</v>
       </c>
-      <c r="U10" s="25"/>
+      <c r="U10" s="22"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="9">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8">
         <v>2014</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26">
+      <c r="D11" s="11"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23">
         <v>0.185048126517236</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="23">
         <v>0.31544957597725</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <v>0.1772925743034</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="19">
         <v>0.180591759678746</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="33">
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="29">
         <v>0.630978835614229</v>
       </c>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8">
         <v>2013</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26">
+      <c r="D12" s="11"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23">
         <v>-0.119631418831862</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="23">
         <v>-0.131269053492256</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="23">
         <v>-0.15700151136969</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="19">
         <v>-0.00419214098658305</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8">
         <v>2012</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23">
         <f>AVERAGE(G2:G12)</f>
         <v>0.124896938204789</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26">
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23">
         <f>AVERAGE(J2:J12)</f>
         <v>0.134573740095833</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-    </row>
-    <row r="16" ht="28" spans="1:21">
-      <c r="A16" s="14" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-    </row>
-    <row r="17" ht="28" spans="1:21">
-      <c r="A17" s="14" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-    </row>
-    <row r="18" ht="28" spans="1:21">
-      <c r="A18" s="14" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-    </row>
-    <row r="19" ht="28" spans="1:21">
-      <c r="A19" s="14" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-    </row>
-    <row r="20" ht="28" spans="1:21">
-      <c r="A20" s="14" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-    </row>
-    <row r="21" ht="28" spans="1:21">
-      <c r="A21" s="14" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-    </row>
-    <row r="22" ht="28" spans="1:21">
-      <c r="A22" s="14" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-    </row>
-    <row r="23" ht="28" spans="1:21">
-      <c r="A23" s="14" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-    </row>
-    <row r="24" ht="28" spans="1:21">
-      <c r="A24" s="14" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
